--- a/medicine/Enfance/Yves_Heurté/Yves_Heurté.xlsx
+++ b/medicine/Enfance/Yves_Heurté/Yves_Heurté.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Yves_Heurt%C3%A9</t>
+          <t>Yves_Heurté</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Yves Heurté, né le 7 avril 1926 à Marigny (Marne), mort le 19 février 2006 à Cierp-Gaud (Haute-Garonne, est un écrivain, auteur de romans pour la jeunesse, dramaturge et poète français.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Yves_Heurt%C3%A9</t>
+          <t>Yves_Heurté</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 D'origine bretonne, Yves Heurté mène pendant toute sa vie à la fois une carrière d'auteur et celle de médecin de montagne dans la Haute-Garonne (de 1953 à 1988). Cette multi-activité l'influence constamment : ses œuvres littéraires sont nourries de ses expériences professionnelles et il met son talent littéraire comme ses capacités médicales au service d'une implication dans divers domaines humanitaires (boat-people, jeunes toxicomanes).
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Yves_Heurt%C3%A9</t>
+          <t>Yves_Heurté</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Romans (liste non exhaustive)
 La Ruche en feu, Gallimard, 1970
@@ -554,7 +570,7 @@
 Les Chevaux de vent, éditions Milan, 1995
 L'Horloger de l'aube, Syros, 1997
 L'Atelier de la folie, Seuil, 1998
-Le Livre de la Lézarde, avec Claire Forgeot, Seuil jeunesse, 1998[1]
+Le Livre de la Lézarde, avec Claire Forgeot, Seuil jeunesse, 1998
 Le Pas du Loup, éditions L'ecir, 2006
 Yves Heurté a écrit plusieurs romans pour la jeunesse, ainsi que des contes et nouvelles.
 Textes autobiographiques
@@ -572,7 +588,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Yves_Heurt%C3%A9</t>
+          <t>Yves_Heurté</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -590,10 +606,12 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Prix 12/17 Brive-Montréal[2] 1992 avec Daniel Sernine
-Prix de poésie Joël Sadeler[3] 2002 pour Chocolats chauds et autres gourmandises </t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Prix 12/17 Brive-Montréal 1992 avec Daniel Sernine
+Prix de poésie Joël Sadeler 2002 pour Chocolats chauds et autres gourmandises </t>
         </is>
       </c>
     </row>
